--- a/Venus Atmosphere.xlsx
+++ b/Venus Atmosphere.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akank\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akank\Documents\physhack2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AF7DB8-FDA9-4209-873D-6242FA73D825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F4224-A3A2-449D-B3EA-D5AC19219FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{F094A0A5-7D88-41B1-BAC3-00DB99071672}"/>
+    <workbookView xWindow="-17430" yWindow="4005" windowWidth="16920" windowHeight="10995" xr2:uid="{F094A0A5-7D88-41B1-BAC3-00DB99071672}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,49 +34,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Molecule type </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Volume ratio mixing</t>
   </si>
   <si>
-    <t>Carbon Dioxide</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Sulphur Dioxide</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d </t>
-  </si>
-  <si>
     <t>Molecular Mass (g/mol)</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>a_L</t>
+  </si>
+  <si>
+    <t>b_L</t>
+  </si>
+  <si>
+    <t>c_L</t>
+  </si>
+  <si>
+    <t>d_L</t>
+  </si>
+  <si>
+    <t>a_M</t>
+  </si>
+  <si>
+    <t>b_M</t>
+  </si>
+  <si>
+    <t>c_M</t>
+  </si>
+  <si>
+    <t>d_M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,10 +97,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Source Sans Pro"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,10 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E8AE76-06BB-485C-A91D-3821C3E789D1}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,27 +469,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.96499999999999997</v>
@@ -488,7 +509,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>44.01</v>
@@ -508,7 +529,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>-1.3616999999999999</v>
@@ -528,7 +549,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.94899</v>
@@ -548,7 +569,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>-6.9258999999999998E-4</v>
@@ -568,7 +589,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>2.5973999999999999E-6</v>
@@ -587,16 +608,84 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-509.25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>27.907</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-21162</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-95.686000000000007</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9.0723000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.2766000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.4972000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>118.46</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.82838999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.33262999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="1"/>
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-4.0600999999999996E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-7.0423999999999997E-6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.16647999999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.8311000000000004E-5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.1806E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.0906999999999996E-6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.1734E-7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.6825E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.2985E-7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.7035E-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,12 +694,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,15 +846,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9A7048-C721-413D-9A75-9C6D516EEB71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A34A9-09F4-4F20-928E-D98A36CF8AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e2a7af89-260d-450d-892c-eee7f6f09eda"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -792,17 +889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A34A9-09F4-4F20-928E-D98A36CF8AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9A7048-C721-413D-9A75-9C6D516EEB71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e2a7af89-260d-450d-892c-eee7f6f09eda"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Venus Atmosphere.xlsx
+++ b/Venus Atmosphere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akank\Documents\physhack2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F4224-A3A2-449D-B3EA-D5AC19219FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6F749-F89F-464E-A866-C54BD211DCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17430" yWindow="4005" windowWidth="16920" windowHeight="10995" xr2:uid="{F094A0A5-7D88-41B1-BAC3-00DB99071672}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{F094A0A5-7D88-41B1-BAC3-00DB99071672}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Volume ratio mixing</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>d_M</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.73534</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E8AE76-06BB-485C-A91D-3821C3E789D1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +473,7 @@
     <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="F2" s="1">
         <v>1.7E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -526,8 +538,11 @@
       <c r="F3">
         <v>28.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>15.994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -546,8 +561,11 @@
       <c r="F4" s="1">
         <v>0.27757999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1">
+        <v>0.35922999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -566,8 +584,11 @@
       <c r="F5">
         <v>0.3629</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -586,8 +607,11 @@
       <c r="F6" s="1">
         <v>-7.4668999999999996E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1">
+        <v>-6.4869999999999994E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -606,8 +630,11 @@
       <c r="F7" s="1">
         <v>1.4896E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="1">
+        <v>1.3073000000000001E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -621,13 +648,16 @@
         <v>-21162</v>
       </c>
       <c r="E8" s="1">
-        <v>-95.686000000000007</v>
+        <v>-94.326999999999998</v>
       </c>
       <c r="F8" s="1">
         <v>9.0723000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1">
+        <v>36.539000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -641,13 +671,16 @@
         <v>118.46</v>
       </c>
       <c r="E9" s="1">
-        <v>0.82838999999999996</v>
+        <v>0.81903000000000004</v>
       </c>
       <c r="F9" s="1">
         <v>0.33262999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1">
+        <v>0.57015000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -661,13 +694,16 @@
         <v>-0.16647999999999999</v>
       </c>
       <c r="E10" s="4">
-        <v>6.8311000000000004E-5</v>
+        <v>7.4004999999999994E-5</v>
       </c>
       <c r="F10" s="1">
         <v>1.1806E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <v>1.6332E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -681,10 +717,13 @@
         <v>1.6825E-4</v>
       </c>
       <c r="E11" s="1">
-        <v>4.2985E-7</v>
+        <v>4.2436999999999998E-7</v>
       </c>
       <c r="F11" s="1">
         <v>2.7035E-8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.5568000000000001E-8</v>
       </c>
     </row>
   </sheetData>
